--- a/database/_legacy-data/fixtures.xlsx
+++ b/database/_legacy-data/fixtures.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="17970" windowHeight="12555" xr2:uid="{8455CC45-3136-47B0-AF7C-E27F4836AC35}"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="17970" windowHeight="12555" xr2:uid="{8455CC45-3136-47B0-AF7C-E27F4836AC35}"/>
   </bookViews>
   <sheets>
     <sheet name="2017 - 1 " sheetId="1" r:id="rId1"/>
@@ -144,6 +144,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,7 +178,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -492,15 +495,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6754C2F-3520-4F81-9DD6-817784A1132E}">
   <dimension ref="A1:T134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B7:B8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -1496,6 +1499,7 @@
       <c r="B28">
         <v>363</v>
       </c>
+      <c r="C28" s="1"/>
       <c r="D28">
         <v>22</v>
       </c>
@@ -4910,5 +4914,6 @@
   </sheetData>
   <autoFilter ref="A1:T134" xr:uid="{7251E6BB-0FD6-4145-873A-2A609487CDEA}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/_legacy-data/fixtures.xlsx
+++ b/database/_legacy-data/fixtures.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="17970" windowHeight="12555" xr2:uid="{8455CC45-3136-47B0-AF7C-E27F4836AC35}"/>
+    <workbookView xWindow="8535" yWindow="0" windowWidth="17970" windowHeight="12555" xr2:uid="{8455CC45-3136-47B0-AF7C-E27F4836AC35}"/>
   </bookViews>
   <sheets>
     <sheet name="fixtures" sheetId="1" r:id="rId1"/>
@@ -587,6 +587,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -603,10 +671,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="C0C0C0"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="242424"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -899,10 +967,10 @@
   <dimension ref="A1:T1974"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1684" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:T1725"/>
+      <selection pane="bottomRight" activeCell="F1662" sqref="F1662"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49326,7 +49394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1398" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1398" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1398">
         <v>1624</v>
       </c>
@@ -49746,7 +49814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1410" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1410" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1410">
         <v>1638</v>
       </c>
@@ -49956,7 +50024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1416" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1416" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1416">
         <v>1645</v>
       </c>
@@ -50376,7 +50444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1428" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1428" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1428">
         <v>1659</v>
       </c>
@@ -51153,7 +51221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1450" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1450" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1450">
         <v>1685</v>
       </c>
@@ -51401,7 +51469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1457" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1457" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1457">
         <v>1695</v>
       </c>
@@ -51842,7 +51910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1469" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1469" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1469">
         <v>1709</v>
       </c>
@@ -52087,7 +52155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1476" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1476" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1476">
         <v>1717</v>
       </c>
@@ -52557,7 +52625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1489" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1489" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1489">
         <v>1732</v>
       </c>
@@ -52841,7 +52909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1497" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1497" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1497">
         <v>1742</v>
       </c>
@@ -57778,7 +57846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1637" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1637" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1637">
         <v>2297</v>
       </c>
@@ -57813,7 +57881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1638" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1638" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1638">
         <v>2298</v>
       </c>
@@ -57848,7 +57916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1639" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1639" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1639">
         <v>2299</v>
       </c>
@@ -57886,7 +57954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1640" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1640" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1640">
         <v>2300</v>
       </c>
@@ -57921,7 +57989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1641" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1641" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1641">
         <v>2302</v>
       </c>
@@ -57959,7 +58027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1642" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1642" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1642">
         <v>2303</v>
       </c>
@@ -57994,7 +58062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1643" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1643" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1643">
         <v>2304</v>
       </c>
@@ -58029,7 +58097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1644" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1644" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1644">
         <v>2305</v>
       </c>
@@ -58064,7 +58132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1645" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1645" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1645">
         <v>2307</v>
       </c>
@@ -58099,7 +58167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1646" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1646" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1646">
         <v>2308</v>
       </c>
@@ -58134,7 +58202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1647" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1647" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1647">
         <v>2309</v>
       </c>
@@ -58172,7 +58240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1648" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1648" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1648">
         <v>2311</v>
       </c>
@@ -58210,7 +58278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1649" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1649" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1649">
         <v>2312</v>
       </c>
@@ -58245,7 +58313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1650" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1650" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1650">
         <v>2313</v>
       </c>
@@ -58280,7 +58348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1651" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1651" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1651">
         <v>2314</v>
       </c>
@@ -58315,7 +58383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1652" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1652" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1652">
         <v>2316</v>
       </c>
@@ -58350,7 +58418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1653" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1653" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1653">
         <v>2317</v>
       </c>
@@ -58385,7 +58453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1654" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1654" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1654">
         <v>2318</v>
       </c>
@@ -58423,7 +58491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1655" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1655" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1655">
         <v>2319</v>
       </c>
@@ -58461,7 +58529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1656" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1656" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1656">
         <v>2320</v>
       </c>
@@ -58496,7 +58564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1657" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1657" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1657">
         <v>2321</v>
       </c>
@@ -58534,7 +58602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1658" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1658" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1658">
         <v>2322</v>
       </c>
@@ -58569,7 +58637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1659" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1659" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1659">
         <v>2323</v>
       </c>
@@ -58607,7 +58675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1660" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1660" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1660">
         <v>2324</v>
       </c>
@@ -58642,7 +58710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1661" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1661" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1661">
         <v>2326</v>
       </c>
@@ -58691,10 +58759,10 @@
         <v>16</v>
       </c>
       <c r="E1662">
+        <v>63</v>
+      </c>
+      <c r="F1662">
         <v>12</v>
-      </c>
-      <c r="F1662">
-        <v>63</v>
       </c>
       <c r="G1662">
         <v>1</v>
@@ -58715,7 +58783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1663" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1663" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1663">
         <v>2328</v>
       </c>
@@ -58750,7 +58818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1664" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1664" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1664">
         <v>2329</v>
       </c>
@@ -58785,7 +58853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1665" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1665" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1665">
         <v>2330</v>
       </c>
@@ -58820,7 +58888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1666" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1666" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1666">
         <v>2331</v>
       </c>
@@ -58855,7 +58923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1667" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1667" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1667">
         <v>2332</v>
       </c>
@@ -58928,7 +58996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1669" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1669" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1669">
         <v>2335</v>
       </c>
@@ -58963,7 +59031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1670" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1670" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1670">
         <v>2336</v>
       </c>
@@ -58998,7 +59066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1671" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1671" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1671">
         <v>2337</v>
       </c>
@@ -59033,7 +59101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1672" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1672" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1672">
         <v>2338</v>
       </c>
@@ -59071,7 +59139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1673" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1673" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1673">
         <v>2340</v>
       </c>
@@ -59106,7 +59174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1674" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1674" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1674">
         <v>2341</v>
       </c>
@@ -59141,7 +59209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1675" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1675" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1675">
         <v>2342</v>
       </c>
@@ -59179,7 +59247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1676" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1676" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1676">
         <v>2344</v>
       </c>
@@ -59217,7 +59285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1677" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1677" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1677">
         <v>2346</v>
       </c>
@@ -59252,7 +59320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1678" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1678" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1678">
         <v>2347</v>
       </c>
@@ -59287,7 +59355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1679" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1679" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1679">
         <v>2348</v>
       </c>
@@ -59322,7 +59390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1680" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1680" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1680">
         <v>2349</v>
       </c>
@@ -59357,7 +59425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1681" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1681" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1681">
         <v>2350</v>
       </c>
@@ -59392,7 +59460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1682" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1682" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1682">
         <v>2351</v>
       </c>
@@ -59427,7 +59495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1683" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1683" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1683">
         <v>2352</v>
       </c>
@@ -59462,7 +59530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1684" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1684" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1684">
         <v>2353</v>
       </c>
@@ -59500,7 +59568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1685" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1685" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1685">
         <v>2356</v>
       </c>
@@ -59535,7 +59603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1686" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1686" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1686">
         <v>2357</v>
       </c>
@@ -59605,7 +59673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1688" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1688" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1688">
         <v>2359</v>
       </c>
@@ -59640,7 +59708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1689" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1689" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1689">
         <v>2361</v>
       </c>
@@ -59675,7 +59743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1690" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1690" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1690">
         <v>2362</v>
       </c>
@@ -59710,7 +59778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1691" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1691" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1691">
         <v>2363</v>
       </c>
@@ -59745,7 +59813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1692" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1692" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1692">
         <v>2364</v>
       </c>
@@ -59780,7 +59848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1693" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1693" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1693">
         <v>2365</v>
       </c>
@@ -59815,7 +59883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1694" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1694" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1694">
         <v>2367</v>
       </c>
@@ -59885,7 +59953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1696" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1696" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1696">
         <v>2369</v>
       </c>
@@ -59958,7 +60026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1698" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1698" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1698">
         <v>2371</v>
       </c>
@@ -59993,7 +60061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1699" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1699" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1699">
         <v>2372</v>
       </c>
@@ -60028,7 +60096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1700" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1700" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1700">
         <v>2373</v>
       </c>
@@ -60066,7 +60134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1701" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1701" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1701">
         <v>2375</v>
       </c>
@@ -60101,7 +60169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1702" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1702" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1702">
         <v>2376</v>
       </c>
@@ -60139,7 +60207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1703" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1703" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1703">
         <v>2377</v>
       </c>
@@ -60209,7 +60277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1705" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1705" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1705">
         <v>2379</v>
       </c>
@@ -60282,7 +60350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1707" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1707" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1707">
         <v>2382</v>
       </c>
@@ -60317,7 +60385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1708" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1708" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1708">
         <v>2383</v>
       </c>
@@ -60355,7 +60423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1709" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1709" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1709">
         <v>2384</v>
       </c>
@@ -60393,7 +60461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1710" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1710" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1710">
         <v>2386</v>
       </c>
@@ -60428,7 +60496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1711" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1711" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1711">
         <v>2387</v>
       </c>
@@ -60466,7 +60534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1712" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1712" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1712">
         <v>2388</v>
       </c>
@@ -60504,7 +60572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1713" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1713" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1713">
         <v>2389</v>
       </c>
@@ -60577,7 +60645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1715" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1715" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1715">
         <v>2392</v>
       </c>
@@ -60612,7 +60680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1716" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1716" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1716">
         <v>2393</v>
       </c>
@@ -60647,7 +60715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1717" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1717" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1717">
         <v>2394</v>
       </c>
@@ -60685,7 +60753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1718" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1718" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1718">
         <v>2396</v>
       </c>
@@ -60758,7 +60826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1720" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1720" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1720">
         <v>2398</v>
       </c>
@@ -60793,7 +60861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1721" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1721" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1721">
         <v>2399</v>
       </c>
@@ -60828,7 +60896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1722" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1722" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1722">
         <v>2401</v>
       </c>
@@ -60863,7 +60931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1723" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1723" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1723">
         <v>2402</v>
       </c>
@@ -60898,7 +60966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1724" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1724" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1724">
         <v>2403</v>
       </c>
@@ -60933,7 +61001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1725" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1725" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1725">
         <v>2404</v>
       </c>
@@ -69510,11 +69578,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:T1974" xr:uid="{7251E6BB-0FD6-4145-873A-2A609487CDEA}">
-    <filterColumn colId="1">
-      <customFilters and="1">
-        <customFilter operator="greaterThanOrEqual" val="303"/>
-        <customFilter operator="lessThanOrEqual" val="324"/>
-      </customFilters>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="63"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
